--- a/DBdesign.xlsx
+++ b/DBdesign.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>学号</t>
   </si>
@@ -50,7 +50,7 @@
     <t>足球经理</t>
   </si>
   <si>
-    <t>队伍建立与管理</t>
+    <t>队伍建立与管理，经理聊天功能，其他办公应用链接，前端菜单界面，球队赛程安排</t>
   </si>
   <si>
     <t>作为足球经理，我可以从球员名单中选择球员组建队伍的各级梯队，并进行人员调整；</t>
@@ -59,7 +59,7 @@
     <t>周瑾瑜</t>
   </si>
   <si>
-    <t>经理聊天功能，其他办公应用链接，前端菜单界面</t>
+    <t>分析球员数据，招募球员与球员交易</t>
   </si>
   <si>
     <t>我可以在聊天框与其他经理交流，甚至促成球员的交易；我可以点击超链接从管理系统跳转到其他的办公应用。</t>
@@ -68,7 +68,7 @@
     <t>肖颖</t>
   </si>
   <si>
-    <t>队伍财政系统管理</t>
+    <t>队伍财政系统管理，招募教练</t>
   </si>
   <si>
     <t>我可以查看队伍财务数据，辅助我做出交易球员的决定，并生成报表发给球队老板。</t>
@@ -113,7 +113,7 @@
     <t>沈徐敏</t>
   </si>
   <si>
-    <t>为球员排名，每场比赛后的积分变动</t>
+    <t>为球员排名，每场比赛后的队伍积分变动</t>
   </si>
   <si>
     <t>在球员界面，我可以看到球员的评分</t>
@@ -137,25 +137,13 @@
     <t>在比赛日程界面，可以储存和查看比赛场地</t>
   </si>
   <si>
-    <t>球队赛程安排</t>
-  </si>
-  <si>
     <t>在比赛日程界面可以查看比赛的安排日程</t>
   </si>
   <si>
-    <t>分析球员数据</t>
-  </si>
-  <si>
     <t>对于经理和教练，在球员界面可以查看球员的各项数据，如健康状况和评分</t>
   </si>
   <si>
-    <t>招募球员与球员交易</t>
-  </si>
-  <si>
     <t>作为经理，可以在球员市场选择球员加入到自己的俱乐部中，也可以选择将球员交易，放入球员市场中。</t>
-  </si>
-  <si>
-    <t>招募教练</t>
   </si>
   <si>
     <t>与招募球员相似</t>
@@ -1321,7 +1309,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -1517,36 +1505,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="4:5">
-      <c r="D12" t="s">
+    <row r="12" customHeight="1" spans="5:5">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="5:5">
+      <c r="E13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="4:5">
-      <c r="D13" t="s">
+    <row r="14" customHeight="1" spans="5:5">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="5:5">
+      <c r="E15" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="4:5">
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="4:5">
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
